--- a/PartyGameEncyclopediaFinalProject/479 Drinking Games Data.xlsx
+++ b/PartyGameEncyclopediaFinalProject/479 Drinking Games Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16460" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Games</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Min Players</t>
+  </si>
+  <si>
+    <t>Rules</t>
   </si>
 </sst>
 </file>
@@ -484,15 +487,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -517,13 +520,16 @@
       <c r="I1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -549,7 +555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -575,7 +581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -601,7 +607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -627,7 +633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -653,7 +659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -679,7 +685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -705,7 +711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -731,7 +737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -757,7 +763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -783,7 +789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -809,7 +815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>29</v>
       </c>
